--- a/氣象性能評估工具V2/data/obs/2016-06-23_T2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/2016-06-23_T2_obs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="213">
   <si>
     <t>times</t>
   </si>
@@ -91,12 +91,12 @@
     <t>恆春</t>
   </si>
   <si>
+    <t>22.6</t>
+  </si>
+  <si>
     <t>2016-06-23-00</t>
   </si>
   <si>
-    <t>22.6</t>
-  </si>
-  <si>
     <t>28.1</t>
   </si>
   <si>
@@ -151,12 +151,12 @@
     <t>28.3</t>
   </si>
   <si>
+    <t>23.2</t>
+  </si>
+  <si>
     <t>2016-06-23-01</t>
   </si>
   <si>
-    <t>23.2</t>
-  </si>
-  <si>
     <t>27.5</t>
   </si>
   <si>
@@ -190,12 +190,12 @@
     <t>28.2</t>
   </si>
   <si>
+    <t>23.1</t>
+  </si>
+  <si>
     <t>2016-06-23-02</t>
   </si>
   <si>
-    <t>23.1</t>
-  </si>
-  <si>
     <t>24.4</t>
   </si>
   <si>
@@ -211,12 +211,12 @@
     <t>26.6</t>
   </si>
   <si>
+    <t>23.7</t>
+  </si>
+  <si>
     <t>2016-06-23-03</t>
   </si>
   <si>
-    <t>23.7</t>
-  </si>
-  <si>
     <t>27.1</t>
   </si>
   <si>
@@ -238,12 +238,12 @@
     <t>26.5</t>
   </si>
   <si>
+    <t>24.0</t>
+  </si>
+  <si>
     <t>2016-06-23-04</t>
   </si>
   <si>
-    <t>24.0</t>
-  </si>
-  <si>
     <t>26.9</t>
   </si>
   <si>
@@ -274,12 +274,12 @@
     <t>7.9</t>
   </si>
   <si>
+    <t>22.9</t>
+  </si>
+  <si>
     <t>2016-06-23-06</t>
   </si>
   <si>
-    <t>22.9</t>
-  </si>
-  <si>
     <t>24.7</t>
   </si>
   <si>
@@ -307,12 +307,12 @@
     <t>30.1</t>
   </si>
   <si>
+    <t>23.5</t>
+  </si>
+  <si>
     <t>2016-06-23-07</t>
   </si>
   <si>
-    <t>23.5</t>
-  </si>
-  <si>
     <t>24.9</t>
   </si>
   <si>
@@ -394,12 +394,12 @@
     <t>32.5</t>
   </si>
   <si>
+    <t>25.5</t>
+  </si>
+  <si>
     <t>2016-06-23-09</t>
   </si>
   <si>
-    <t>25.5</t>
-  </si>
-  <si>
     <t>33.0</t>
   </si>
   <si>
@@ -532,12 +532,12 @@
     <t>13.4</t>
   </si>
   <si>
+    <t>25.4</t>
+  </si>
+  <si>
     <t>2016-06-23-14</t>
   </si>
   <si>
-    <t>25.4</t>
-  </si>
-  <si>
     <t>33.3</t>
   </si>
   <si>
@@ -616,22 +616,22 @@
     <t>7.6</t>
   </si>
   <si>
+    <t>23.6</t>
+  </si>
+  <si>
     <t>2016-06-23-21</t>
   </si>
   <si>
-    <t>23.6</t>
-  </si>
-  <si>
     <t>20.6</t>
   </si>
   <si>
     <t>12.8</t>
   </si>
   <si>
+    <t>22.5</t>
+  </si>
+  <si>
     <t>2016-06-23-22</t>
-  </si>
-  <si>
-    <t>22.5</t>
   </si>
   <si>
     <t>20.7</t>
@@ -659,6 +659,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd-hh"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -688,8 +691,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1068,11 +1072,11 @@
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1111,7 +1115,7 @@
         <v>35</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P2" t="s">
         <v>36</v>
@@ -1145,11 +1149,11 @@
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
         <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>47</v>
@@ -1222,11 +1226,11 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
         <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>59</v>
       </c>
       <c r="C4" t="s">
         <v>52</v>
@@ -1299,11 +1303,11 @@
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
         <v>65</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
       </c>
       <c r="C5" t="s">
         <v>67</v>
@@ -1376,11 +1380,11 @@
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
         <v>74</v>
-      </c>
-      <c r="B6" t="s">
-        <v>75</v>
       </c>
       <c r="C6" t="s">
         <v>76</v>
@@ -1453,11 +1457,11 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -1530,11 +1534,11 @@
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s">
         <v>86</v>
-      </c>
-      <c r="B8" t="s">
-        <v>87</v>
       </c>
       <c r="C8" t="s">
         <v>42</v>
@@ -1607,11 +1611,11 @@
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
         <v>97</v>
-      </c>
-      <c r="B9" t="s">
-        <v>98</v>
       </c>
       <c r="C9" t="s">
         <v>95</v>
@@ -1684,7 +1688,7 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B10" t="s">
@@ -1761,11 +1765,11 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" t="s">
         <v>126</v>
-      </c>
-      <c r="B11" t="s">
-        <v>127</v>
       </c>
       <c r="C11" t="s">
         <v>100</v>
@@ -1838,7 +1842,7 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B12" t="s">
@@ -1915,7 +1919,7 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B13" t="s">
@@ -1992,7 +1996,7 @@
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B14" t="s">
@@ -2069,7 +2073,7 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B15" t="s">
@@ -2146,11 +2150,11 @@
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" t="s">
         <v>172</v>
-      </c>
-      <c r="B16" t="s">
-        <v>173</v>
       </c>
       <c r="C16" t="s">
         <v>111</v>
@@ -2223,7 +2227,7 @@
       </c>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B17" t="s">
@@ -2300,7 +2304,7 @@
       </c>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B18" t="s">
@@ -2377,7 +2381,7 @@
       </c>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B19" t="s">
@@ -2454,7 +2458,7 @@
       </c>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B20" t="s">
@@ -2531,17 +2535,17 @@
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
         <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E21" t="s">
         <v>90</v>
@@ -2608,11 +2612,11 @@
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
         <v>39</v>
@@ -2685,11 +2689,11 @@
       </c>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B23" t="s">
         <v>200</v>
-      </c>
-      <c r="B23" t="s">
-        <v>201</v>
       </c>
       <c r="C23" t="s">
         <v>51</v>
@@ -2762,11 +2766,11 @@
       </c>
     </row>
     <row r="24" spans="1:25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" t="s">
         <v>204</v>
-      </c>
-      <c r="B24" t="s">
-        <v>205</v>
       </c>
       <c r="C24" t="s">
         <v>49</v>
@@ -2839,11 +2843,11 @@
       </c>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C25" t="s">
         <v>61</v>
